--- a/CF_Public_Tender_Research/Data/SearchTerms.xlsx
+++ b/CF_Public_Tender_Research/Data/SearchTerms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbrose\Documents\UiPath\CF_Public_Tender_Research\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbrose\Documents\Github\CF Portal Search\CF_Public_Tender_Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>ITSM</t>
   </si>
@@ -386,7 +386,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,31 +406,49 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -443,6 +461,9 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
